--- a/data/trans_bre/IP1004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,89</t>
+          <t>-2,1; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,0</t>
+          <t>-1,53; 0,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-22,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-45,36%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,0</t>
+          <t>-1,14; 0,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,73</t>
+          <t>-1,71; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">

--- a/data/trans_bre/IP1004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,36%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,0</t>
+          <t>-1,87; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,73</t>
+          <t>-1,41; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,89</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,0</t>
+          <t>-1,0; 1,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-53,87%</t>
+          <t>-62,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-64,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,25</t>
+          <t>-2,17; 0,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,14</t>
+          <t>-2,65; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 250,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -911,10 +911,98 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-53,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-64,85%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 0,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 0,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 218,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP1004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,0</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,42</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,54</t>
+          <t>-1,45; 1,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,59</t>
+          <t>-2,21; 0,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 0,0</t>
+          <t>-2,89; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,22</t>
+          <t>-0,74; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,13</t>
+          <t>-0,76; 0,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 218,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP1004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1004-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,0</t>
+          <t>-1,92; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,54</t>
+          <t>-0,99; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,38</t>
+          <t>-1,92; 0,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,0</t>
+          <t>-2,39; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,25</t>
+          <t>-0,72; 0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,12</t>
+          <t>-0,65; 0,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 250,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
